--- a/output/raw_data/国债总市值.xlsx
+++ b/output/raw_data/国债总市值.xlsx
@@ -445,16 +445,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C2">
-        <v>12447.04</v>
+        <v>12874.59</v>
       </c>
       <c r="D2">
-        <v>10976.15</v>
+        <v>11689.75</v>
       </c>
       <c r="E2" s="2">
-        <v>45869</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -462,16 +462,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>12526</v>
+        <v>12834</v>
       </c>
       <c r="C3">
-        <v>19485.59</v>
+        <v>21556.31</v>
       </c>
       <c r="D3">
-        <v>19449.65</v>
+        <v>21517.26</v>
       </c>
       <c r="E3" s="2">
-        <v>45869</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -479,16 +479,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>684.29</v>
+        <v>559.78</v>
       </c>
       <c r="D4">
-        <v>650</v>
+        <v>530</v>
       </c>
       <c r="E4" s="2">
-        <v>45869</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -496,16 +496,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>7158</v>
+        <v>7227</v>
       </c>
       <c r="C5">
-        <v>71219.61</v>
+        <v>73607.34</v>
       </c>
       <c r="D5">
-        <v>71178.88</v>
+        <v>73656.17999999999</v>
       </c>
       <c r="E5" s="2">
-        <v>45869</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -513,16 +513,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>8785</v>
+        <v>8932</v>
       </c>
       <c r="C6">
-        <v>60371.63</v>
+        <v>60912.44</v>
       </c>
       <c r="D6">
-        <v>60015.48</v>
+        <v>60768.21</v>
       </c>
       <c r="E6" s="2">
-        <v>45869</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -530,16 +530,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>617.39</v>
+        <v>554.75</v>
       </c>
       <c r="D7">
-        <v>539.33</v>
+        <v>488.08</v>
       </c>
       <c r="E7" s="2">
-        <v>45869</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -547,16 +547,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C8">
-        <v>4961.33</v>
+        <v>4817.69</v>
       </c>
       <c r="D8">
-        <v>4002.41</v>
+        <v>3703.93</v>
       </c>
       <c r="E8" s="2">
-        <v>45869</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -564,16 +564,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>4645</v>
+        <v>4665</v>
       </c>
       <c r="C9">
-        <v>15920.99</v>
+        <v>16091.49</v>
       </c>
       <c r="D9">
-        <v>16055.58</v>
+        <v>16211.88</v>
       </c>
       <c r="E9" s="2">
-        <v>45869</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -581,16 +581,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>33598</v>
+        <v>34130</v>
       </c>
       <c r="C10">
-        <v>185707.88</v>
+        <v>190974.39</v>
       </c>
       <c r="D10">
-        <v>182867.48</v>
+        <v>188565.3</v>
       </c>
       <c r="E10" s="2">
-        <v>45869</v>
+        <v>45940</v>
       </c>
     </row>
   </sheetData>
